--- a/props_config_tool/Props_config .xlsx
+++ b/props_config_tool/Props_config .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC91E2C-D8B6-A841-BE8B-4D9E4C688601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CD1F0-DD84-4F47-BE2F-794267CBF172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="-17360" windowWidth="28100" windowHeight="17440" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
+    <workbookView xWindow="-1860" yWindow="-21100" windowWidth="36520" windowHeight="21100" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>clubs_id</t>
+  </si>
+  <si>
+    <t>clubs_level</t>
+  </si>
+  <si>
+    <t>第1组</t>
+  </si>
+  <si>
+    <t>第2组</t>
+  </si>
+  <si>
+    <t>第3组</t>
+  </si>
+  <si>
+    <t>第4组</t>
+  </si>
+  <si>
+    <t>第5组</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
@@ -43,15 +78,45 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +124,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,12 +480,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93D1C0-6563-2640-AF84-D98EFC162682}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="7" width="10.7109375" style="7"/>
+    <col min="8" max="12" width="10.7109375" style="8"/>
+    <col min="13" max="17" width="10.7109375" style="9"/>
+    <col min="18" max="22" width="10.7109375" style="10"/>
+    <col min="23" max="27" width="10.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/props_config_tool/Props_config .xlsx
+++ b/props_config_tool/Props_config .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CD1F0-DD84-4F47-BE2F-794267CBF172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5DB95-4B4F-554A-A9E7-F7E9BBFF5BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1860" yWindow="-21100" windowWidth="36520" windowHeight="21100" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
@@ -146,6 +146,11 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,11 +166,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,55 +483,55 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="2" width="10.7109375" style="1"/>
-    <col min="3" max="7" width="10.7109375" style="7"/>
-    <col min="8" max="12" width="10.7109375" style="8"/>
-    <col min="13" max="17" width="10.7109375" style="9"/>
-    <col min="18" max="22" width="10.7109375" style="10"/>
-    <col min="23" max="27" width="10.7109375" style="11"/>
+    <col min="3" max="7" width="10.7109375" style="2"/>
+    <col min="8" max="12" width="10.7109375" style="3"/>
+    <col min="13" max="17" width="10.7109375" style="4"/>
+    <col min="18" max="22" width="10.7109375" style="5"/>
+    <col min="23" max="27" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="6" t="s">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
@@ -540,79 +540,79 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="N2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="11" t="s">
+      <c r="S2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="11" t="s">
+      <c r="X2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/props_config_tool/Props_config .xlsx
+++ b/props_config_tool/Props_config .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5DB95-4B4F-554A-A9E7-F7E9BBFF5BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E477BAC7-9595-B34C-BCC1-7B2303693859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1860" yWindow="-21100" windowWidth="36520" windowHeight="21100" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/props_config_tool/Props_config .xlsx
+++ b/props_config_tool/Props_config .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E477BAC7-9595-B34C-BCC1-7B2303693859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88C39A-10D7-2742-BFB8-6AFF80FBB1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="-21100" windowWidth="36520" windowHeight="21100" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
+    <workbookView xWindow="-7580" yWindow="-26980" windowWidth="42920" windowHeight="23520" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93D1C0-6563-2640-AF84-D98EFC162682}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -616,6 +616,298 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1">
+        <v>24800</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24800</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3">
+        <v>63</v>
+      </c>
+      <c r="L3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1">
+        <v>23900</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23900</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3">
+        <v>63</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>37</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>6</v>
+      </c>
+      <c r="S4" s="5">
+        <v>37</v>
+      </c>
+      <c r="T4" s="5">
+        <v>6</v>
+      </c>
+      <c r="U4" s="5">
+        <v>39</v>
+      </c>
+      <c r="V4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1">
+        <v>24200</v>
+      </c>
+      <c r="B5" s="1">
+        <v>24200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>63</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1">
+        <v>24700</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3">
+        <v>63</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1">
+        <v>24600</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1">
+        <v>24000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>63</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>23800</v>
+      </c>
+      <c r="B9" s="1">
+        <v>23800</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>63</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>24300</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24300</v>
+      </c>
+      <c r="D10" s="2">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3">
+        <v>63</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>31</v>
+      </c>
+      <c r="O10" s="4">
+        <v>11</v>
+      </c>
+      <c r="P10" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:G1"/>

--- a/props_config_tool/Props_config .xlsx
+++ b/props_config_tool/Props_config .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88C39A-10D7-2742-BFB8-6AFF80FBB1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE204F-94AA-4F4D-AD09-78E37A3C99FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7580" yWindow="-26980" windowWidth="42920" windowHeight="23520" xr2:uid="{A31C8E30-1433-5E44-A4D4-D6FE9C517B26}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
